--- a/planilhas/despesas_treinamento.xlsx
+++ b/planilhas/despesas_treinamento.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Resumo Janeiro" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumo Janeiro" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,106 +20,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Ano</t>
+    <t>Ano</t>
   </si>
   <si>
-    <t xml:space="preserve">Mês</t>
+    <t>Mês</t>
   </si>
   <si>
-    <t xml:space="preserve">Centro de Custo</t>
+    <t>Centro de Custo</t>
   </si>
   <si>
-    <t xml:space="preserve">Categoria</t>
+    <t>Categoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor</t>
+    <t>Valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Julho</t>
+    <t>Julho</t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing</t>
+    <t>Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicidade</t>
+    <t>Publicidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Abril</t>
+    <t>Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">TI</t>
+    <t>TI</t>
   </si>
   <si>
-    <t xml:space="preserve">Treinamento</t>
+    <t>Treinamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Junho</t>
+    <t>Junho</t>
   </si>
   <si>
-    <t xml:space="preserve">Produção</t>
+    <t>Produção</t>
   </si>
   <si>
-    <t xml:space="preserve">Dezembro</t>
+    <t>Dezembro</t>
   </si>
   <si>
-    <t xml:space="preserve">Outubro</t>
+    <t>Outubro</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluguel</t>
+    <t>Aluguel</t>
   </si>
   <si>
-    <t xml:space="preserve">Fevereiro</t>
+    <t>Fevereiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Financeiro</t>
+    <t>Financeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Salário</t>
+    <t>Salário</t>
   </si>
   <si>
-    <t xml:space="preserve">Maio</t>
+    <t>Maio</t>
   </si>
   <si>
-    <t xml:space="preserve">Matéria-prima</t>
+    <t>Matéria-prima</t>
   </si>
   <si>
-    <t xml:space="preserve">RH</t>
+    <t>RH</t>
   </si>
   <si>
-    <t xml:space="preserve">Setembro</t>
+    <t>Setembro</t>
   </si>
   <si>
-    <t xml:space="preserve">Novembro</t>
+    <t>Novembro</t>
   </si>
   <si>
-    <t xml:space="preserve">Energia</t>
+    <t>Energia</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendas</t>
+    <t>Vendas</t>
   </si>
   <si>
-    <t xml:space="preserve">Janeiro</t>
+    <t>Janeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Março</t>
+    <t>Março</t>
   </si>
   <si>
-    <t xml:space="preserve">Agosto</t>
+    <t>Agosto</t>
   </si>
   <si>
-    <t xml:space="preserve">% do Total</t>
+    <t>% do Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,22 +125,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,10 +133,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -168,111 +156,87 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -280,12 +244,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -314,7 +278,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -335,7 +299,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -386,7 +350,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -404,31 +368,30 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A475" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K484" activeCellId="0" sqref="K484"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.22"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +408,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -458,12 +421,12 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>7409.52</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -475,12 +438,10 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>39665.56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>2023</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -492,12 +453,12 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>33615.69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>2023</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -509,12 +470,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>19984.26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
         <v>2024</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -523,15 +482,13 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>28334.41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -543,12 +500,12 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>43558.67</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -560,12 +517,12 @@
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>29899.91</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>2023</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -577,12 +534,12 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>36328.03</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>2024</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -594,12 +551,12 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>25087.54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>2024</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -611,12 +568,11 @@
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>25568.99</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="E11" s="2"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>2024</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -628,12 +584,12 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>14494.43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>2024</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -645,12 +601,12 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>9803.97</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="E13" s="2">
+        <v>9803.9699999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
         <v>2024</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -662,12 +618,12 @@
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>17916.79</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>2023</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -679,12 +635,12 @@
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>13392.02</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
         <v>2023</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -696,12 +652,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>8876.98</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>2023</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -713,12 +667,12 @@
       <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>20579.65</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>20579.650000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -730,29 +684,27 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>39769.26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>35148.45</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>35148.449999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -764,12 +716,12 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>41530.83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -781,12 +733,12 @@
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>49098.26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>2023</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -798,12 +750,12 @@
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>40115.47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>2024</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -815,12 +767,12 @@
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>34536.13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2">
+        <v>34536.129999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -832,12 +784,12 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>14720.79</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -849,12 +801,12 @@
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>36417.08</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>2023</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -866,12 +818,12 @@
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>42342.89</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>2023</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -883,12 +835,12 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>49633.72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>2024</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -900,12 +852,12 @@
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>2860.45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <v>2023</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -917,12 +869,12 @@
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>48548.53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>2024</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -934,12 +886,12 @@
       <c r="D30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>37444.58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>2023</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -951,12 +903,12 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>35504.34</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="E31" s="2">
+        <v>35504.339999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <v>2023</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -968,12 +920,12 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>35003.27</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="E32" s="2">
+        <v>35003.269999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <v>2023</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -985,12 +937,12 @@
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>1771.61</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <v>2024</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1002,12 +954,12 @@
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>21730.26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <v>2023</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1019,12 +971,12 @@
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>39397.56</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <v>2023</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1036,12 +988,12 @@
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>781.92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <v>2023</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1053,12 +1005,12 @@
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>33401.7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="E37" s="2">
+        <v>33401.699999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
         <v>2023</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1070,12 +1022,12 @@
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>31986.54</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
         <v>2024</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1087,12 +1039,12 @@
       <c r="D39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>20066.54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
         <v>2024</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1104,12 +1056,12 @@
       <c r="D40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2">
         <v>49443.19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
         <v>2023</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1121,12 +1073,12 @@
       <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>31275.67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>2023</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1138,12 +1090,12 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>8042.86</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
         <v>2024</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1155,12 +1107,12 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="2" t="n">
-        <v>19228.69</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="E43" s="2">
+        <v>19228.689999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
         <v>2024</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1172,12 +1124,12 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>27575.79</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
         <v>2024</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1189,12 +1141,12 @@
       <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2">
         <v>25941.85</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
         <v>2024</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1206,12 +1158,12 @@
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>38510.02</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="E46" s="2">
+        <v>38510.019999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
         <v>2023</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1223,12 +1175,12 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2">
         <v>39821.54</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
         <v>2024</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1240,12 +1192,12 @@
       <c r="D48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>9629.47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="E48" s="2">
+        <v>9629.4699999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
         <v>2024</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1257,12 +1209,12 @@
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>42978.54</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
         <v>2024</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1274,12 +1226,12 @@
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2">
         <v>23862.14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
         <v>2024</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1291,12 +1243,12 @@
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2">
         <v>13761.4</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
         <v>2024</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1308,12 +1260,12 @@
       <c r="D52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2">
         <v>5651.98</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>2023</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1325,12 +1277,12 @@
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2">
         <v>19983.48</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
         <v>2023</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1342,12 +1294,12 @@
       <c r="D54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2">
         <v>30053.27</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
         <v>2024</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1359,12 +1311,12 @@
       <c r="D55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="2" t="n">
-        <v>39374.4</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="E55" s="2">
+        <v>39374.400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
         <v>2024</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1376,12 +1328,12 @@
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2">
         <v>22557.69</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
         <v>2023</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1393,12 +1345,12 @@
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2">
         <v>40011.93</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
         <v>2023</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1410,12 +1362,12 @@
       <c r="D58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2">
         <v>24845.02</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
         <v>2023</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1427,12 +1379,12 @@
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2">
         <v>14340.13</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
         <v>2024</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1444,12 +1396,12 @@
       <c r="D60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="2" t="n">
-        <v>32523.2</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="E60" s="2">
+        <v>32523.200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
         <v>2024</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1461,12 +1413,12 @@
       <c r="D61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2">
         <v>22034.73</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
         <v>2024</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1478,12 +1430,12 @@
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2">
         <v>27376.7</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
         <v>2023</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1495,12 +1447,12 @@
       <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2">
         <v>10750.21</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
         <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -1512,12 +1464,12 @@
       <c r="D64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2">
         <v>1886.45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
         <v>2024</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -1529,12 +1481,12 @@
       <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2">
         <v>25126.46</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
         <v>2023</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1546,12 +1498,12 @@
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2">
         <v>1744.99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
         <v>2024</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -1563,12 +1515,12 @@
       <c r="D67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2">
         <v>22400.05</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
         <v>2023</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -1580,12 +1532,12 @@
       <c r="D68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2">
         <v>5363.79</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
         <v>2024</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -1597,12 +1549,12 @@
       <c r="D69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2">
         <v>47302.37</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
         <v>2023</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1614,12 +1566,12 @@
       <c r="D70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2">
         <v>12971.74</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
         <v>2023</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -1631,12 +1583,12 @@
       <c r="D71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2">
         <v>21420.86</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
         <v>2023</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1648,12 +1600,12 @@
       <c r="D72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="2">
         <v>39209.03</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
         <v>2024</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -1665,12 +1617,12 @@
       <c r="D73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2">
         <v>32680.27</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
         <v>2024</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -1682,12 +1634,12 @@
       <c r="D74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2">
         <v>6075.63</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
         <v>2023</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -1699,12 +1651,12 @@
       <c r="D75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2">
         <v>35739.99</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
         <v>2024</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -1716,12 +1668,12 @@
       <c r="D76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2">
         <v>24472.9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
         <v>2024</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -1733,12 +1685,12 @@
       <c r="D77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2">
         <v>31349.45</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
         <v>2023</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -1750,12 +1702,12 @@
       <c r="D78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2">
         <v>3677.75</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
         <v>2024</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1767,12 +1719,12 @@
       <c r="D79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2">
         <v>48555.86</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
         <v>2024</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -1784,12 +1736,12 @@
       <c r="D80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="2" t="n">
-        <v>20693.58</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+      <c r="E80" s="2">
+        <v>20693.580000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
         <v>2023</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -1801,12 +1753,12 @@
       <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2">
         <v>19258.75</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
         <v>2023</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -1818,12 +1770,12 @@
       <c r="D82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2">
         <v>39006.36</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
         <v>2023</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -1835,12 +1787,12 @@
       <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2">
         <v>45249.97</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
         <v>2023</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -1852,12 +1804,12 @@
       <c r="D84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2">
         <v>16087.23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
         <v>2023</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -1869,12 +1821,12 @@
       <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2">
         <v>36750.17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
         <v>2024</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -1886,12 +1838,12 @@
       <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="2" t="n">
-        <v>8399.62</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+      <c r="E86" s="2">
+        <v>8399.6200000000008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
         <v>2024</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -1903,12 +1855,12 @@
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E87" s="2" t="n">
-        <v>30463.6</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+      <c r="E87" s="2">
+        <v>30463.599999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
         <v>2023</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -1920,12 +1872,12 @@
       <c r="D88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="2">
         <v>911.45</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
         <v>2024</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -1937,12 +1889,12 @@
       <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="2">
         <v>46217.19</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
         <v>2023</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -1954,12 +1906,12 @@
       <c r="D90" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="2">
         <v>1288.06</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
         <v>2023</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -1971,12 +1923,12 @@
       <c r="D91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="2" t="n">
-        <v>47794.88</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+      <c r="E91" s="2">
+        <v>47794.879999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
         <v>2023</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -1988,12 +1940,12 @@
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2">
         <v>44019.18</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
         <v>2023</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -2005,12 +1957,12 @@
       <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="2">
         <v>26448.55</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
         <v>2024</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -2022,12 +1974,12 @@
       <c r="D94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="2">
         <v>28651.22</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
         <v>2024</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -2039,12 +1991,12 @@
       <c r="D95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="2">
         <v>49566.59</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
         <v>2024</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -2056,12 +2008,12 @@
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="2">
         <v>45283.11</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
         <v>2023</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -2073,12 +2025,12 @@
       <c r="D97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="2" t="n">
-        <v>33354.63</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+      <c r="E97" s="2">
+        <v>33354.629999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
         <v>2024</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -2090,12 +2042,12 @@
       <c r="D98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="2">
         <v>37825.72</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
         <v>2023</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -2107,12 +2059,12 @@
       <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="2">
         <v>5401.59</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
         <v>2024</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -2124,12 +2076,12 @@
       <c r="D100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="2">
         <v>3506.59</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
         <v>2023</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -2141,12 +2093,12 @@
       <c r="D101" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="2">
         <v>8466.23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
         <v>2024</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2158,12 +2110,12 @@
       <c r="D102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="2">
         <v>5885.99</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
         <v>2023</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -2175,12 +2127,12 @@
       <c r="D103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="2">
         <v>6066.54</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
         <v>2024</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -2192,12 +2144,12 @@
       <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="2">
         <v>21581.62</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
         <v>2024</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -2209,12 +2161,12 @@
       <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="2">
         <v>34651.96</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
         <v>2023</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -2226,12 +2178,12 @@
       <c r="D106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="2">
         <v>29308.36</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
         <v>2023</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -2243,12 +2195,12 @@
       <c r="D107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="2">
         <v>6869.74</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
         <v>2024</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -2260,12 +2212,12 @@
       <c r="D108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="2">
         <v>37940.9</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
         <v>2023</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -2277,12 +2229,12 @@
       <c r="D109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="2">
         <v>22031.66</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
         <v>2024</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -2294,12 +2246,12 @@
       <c r="D110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="2">
         <v>27131.63</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
         <v>2024</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -2311,12 +2263,12 @@
       <c r="D111" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="2">
         <v>4447.8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
         <v>2023</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -2328,12 +2280,12 @@
       <c r="D112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="2">
         <v>26689.55</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
         <v>2023</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -2345,12 +2297,12 @@
       <c r="D113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="2">
         <v>4564.09</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
         <v>2024</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -2362,12 +2314,12 @@
       <c r="D114" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="2" t="n">
-        <v>27160.08</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+      <c r="E114" s="2">
+        <v>27160.080000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
         <v>2024</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -2379,12 +2331,12 @@
       <c r="D115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="2">
         <v>7712.17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
         <v>2023</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -2396,12 +2348,12 @@
       <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="2">
         <v>10481.58</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
         <v>2024</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -2413,12 +2365,12 @@
       <c r="D117" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="2">
         <v>30338.04</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
         <v>2024</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -2430,12 +2382,12 @@
       <c r="D118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="2">
         <v>42176.42</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
         <v>2023</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -2447,12 +2399,12 @@
       <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="2">
         <v>10635.27</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
         <v>2023</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -2464,12 +2416,12 @@
       <c r="D120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="2">
         <v>48005.05</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
         <v>2024</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -2481,12 +2433,12 @@
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="2">
         <v>10652.1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
         <v>2023</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -2498,12 +2450,12 @@
       <c r="D122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="2">
         <v>16474.73</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
         <v>2024</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -2515,12 +2467,12 @@
       <c r="D123" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="2">
         <v>24231.85</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
         <v>2024</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -2532,12 +2484,12 @@
       <c r="D124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="2">
         <v>29480.76</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
         <v>2024</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -2549,12 +2501,12 @@
       <c r="D125" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="2">
         <v>12055.95</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
         <v>2024</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -2566,12 +2518,12 @@
       <c r="D126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="2">
         <v>16499.95</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
         <v>2023</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -2583,12 +2535,12 @@
       <c r="D127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="2">
         <v>27828.06</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
         <v>2024</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -2600,12 +2552,12 @@
       <c r="D128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="2">
         <v>41781.64</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
         <v>2024</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -2617,12 +2569,12 @@
       <c r="D129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E129" s="2" t="n">
-        <v>30179.12</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="E129" s="2">
+        <v>30179.119999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
         <v>2024</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -2634,12 +2586,12 @@
       <c r="D130" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="2">
         <v>21037.63</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
         <v>2024</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -2651,12 +2603,12 @@
       <c r="D131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="2" t="n">
-        <v>18704.26</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+      <c r="E131" s="2">
+        <v>18704.259999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
         <v>2023</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -2668,12 +2620,12 @@
       <c r="D132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="2">
         <v>13420.86</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -2685,12 +2637,12 @@
       <c r="D133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="2">
         <v>22691.87</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -2702,12 +2654,12 @@
       <c r="D134" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="2">
         <v>25021.89</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
         <v>2024</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -2719,12 +2671,12 @@
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="2">
         <v>17978.86</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
         <v>2024</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -2736,12 +2688,12 @@
       <c r="D136" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="2">
         <v>31478.27</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -2753,12 +2705,12 @@
       <c r="D137" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="2">
         <v>47775.29</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
         <v>2024</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -2770,12 +2722,12 @@
       <c r="D138" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="2" t="n">
-        <v>34754.48</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+      <c r="E138" s="2">
+        <v>34754.480000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
         <v>2024</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -2787,12 +2739,12 @@
       <c r="D139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="2">
         <v>12642.91</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
         <v>2024</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -2804,12 +2756,12 @@
       <c r="D140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="2">
         <v>25393.58</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
         <v>2023</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -2821,12 +2773,12 @@
       <c r="D141" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="2">
         <v>25478.67</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
         <v>2023</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -2838,12 +2790,12 @@
       <c r="D142" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="2">
         <v>10714.32</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
         <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -2855,12 +2807,12 @@
       <c r="D143" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="2">
         <v>23668.13</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -2872,12 +2824,12 @@
       <c r="D144" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="2" t="n">
-        <v>1167.37</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+      <c r="E144" s="2">
+        <v>1167.3699999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -2889,12 +2841,12 @@
       <c r="D145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="2">
         <v>23533.59</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
         <v>2023</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -2906,12 +2858,12 @@
       <c r="D146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="2">
         <v>34918.93</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
         <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -2923,12 +2875,12 @@
       <c r="D147" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="2">
         <v>12105.13</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
         <v>2024</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -2940,12 +2892,12 @@
       <c r="D148" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="E148" s="2">
         <v>21511.05</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
         <v>2023</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -2957,12 +2909,12 @@
       <c r="D149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="2">
         <v>1359.65</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
         <v>2023</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -2974,12 +2926,12 @@
       <c r="D150" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="2">
         <v>37411.94</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
         <v>2023</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -2991,12 +2943,12 @@
       <c r="D151" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="2">
         <v>20779.28</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
         <v>2024</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -3008,12 +2960,12 @@
       <c r="D152" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="2">
         <v>28141.69</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
         <v>2024</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -3025,12 +2977,12 @@
       <c r="D153" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="2">
         <v>10137.33</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
         <v>2024</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -3042,12 +2994,12 @@
       <c r="D154" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="2" t="n">
-        <v>8347.3</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+      <c r="E154" s="2">
+        <v>8347.2999999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
         <v>2024</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -3059,12 +3011,12 @@
       <c r="D155" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="2">
         <v>6528.34</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
         <v>2023</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -3076,12 +3028,12 @@
       <c r="D156" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E156" s="2">
         <v>24721.91</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
         <v>2024</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -3093,12 +3045,12 @@
       <c r="D157" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E157" s="2" t="n">
-        <v>38311.98</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+      <c r="E157" s="2">
+        <v>38311.980000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
         <v>2024</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -3110,12 +3062,12 @@
       <c r="D158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="2" t="n">
+      <c r="E158" s="2">
         <v>33126.69</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
         <v>2024</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -3127,12 +3079,12 @@
       <c r="D159" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="2" t="n">
-        <v>574.19</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+      <c r="E159" s="2">
+        <v>574.19000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
         <v>2024</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -3144,12 +3096,12 @@
       <c r="D160" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="2" t="n">
+      <c r="E160" s="2">
         <v>39305.33</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
         <v>2023</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -3161,12 +3113,12 @@
       <c r="D161" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="2" t="n">
+      <c r="E161" s="2">
         <v>29813.13</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
         <v>2024</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -3178,12 +3130,12 @@
       <c r="D162" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="2" t="n">
+      <c r="E162" s="2">
         <v>5906.63</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
         <v>2023</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -3195,12 +3147,12 @@
       <c r="D163" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="2" t="n">
+      <c r="E163" s="2">
         <v>47025.04</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
         <v>2023</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -3212,12 +3164,12 @@
       <c r="D164" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E164" s="2" t="n">
+      <c r="E164" s="2">
         <v>43432.75</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
         <v>2024</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -3229,12 +3181,12 @@
       <c r="D165" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="2" t="n">
+      <c r="E165" s="2">
         <v>32684.11</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
         <v>2023</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -3246,12 +3198,12 @@
       <c r="D166" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="2" t="n">
+      <c r="E166" s="2">
         <v>43147.02</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
         <v>2023</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -3263,12 +3215,12 @@
       <c r="D167" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E167" s="2">
         <v>4855.91</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
         <v>2023</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -3280,12 +3232,12 @@
       <c r="D168" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E168" s="2" t="n">
+      <c r="E168" s="2">
         <v>2654.38</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
         <v>2023</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -3297,12 +3249,12 @@
       <c r="D169" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="2" t="n">
+      <c r="E169" s="2">
         <v>21317.96</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
         <v>2023</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -3314,12 +3266,12 @@
       <c r="D170" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E170" s="2" t="n">
+      <c r="E170" s="2">
         <v>48674.82</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
         <v>2023</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -3331,12 +3283,12 @@
       <c r="D171" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E171" s="2" t="n">
+      <c r="E171" s="2">
         <v>13411.14</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
         <v>2024</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -3348,12 +3300,12 @@
       <c r="D172" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E172" s="2" t="n">
+      <c r="E172" s="2">
         <v>38690.1</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
         <v>2024</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -3365,12 +3317,12 @@
       <c r="D173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="2" t="n">
+      <c r="E173" s="2">
         <v>5740.8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
         <v>2024</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3382,12 +3334,12 @@
       <c r="D174" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E174" s="2" t="n">
+      <c r="E174" s="2">
         <v>813.71</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
         <v>2024</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -3399,12 +3351,12 @@
       <c r="D175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="2" t="n">
+      <c r="E175" s="2">
         <v>25005.8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
         <v>2024</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -3416,12 +3368,12 @@
       <c r="D176" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="2" t="n">
+      <c r="E176" s="2">
         <v>26420.34</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
         <v>2023</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -3433,12 +3385,12 @@
       <c r="D177" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="2" t="n">
+      <c r="E177" s="2">
         <v>16742.03</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
         <v>2024</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3450,12 +3402,12 @@
       <c r="D178" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="2" t="n">
+      <c r="E178" s="2">
         <v>3435.34</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
         <v>2023</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -3467,12 +3419,12 @@
       <c r="D179" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="2" t="n">
+      <c r="E179" s="2">
         <v>11610.1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
         <v>2023</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -3484,12 +3436,12 @@
       <c r="D180" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="2" t="n">
-        <v>9436.28</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
+      <c r="E180" s="2">
+        <v>9436.2800000000007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
         <v>2023</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -3501,12 +3453,12 @@
       <c r="D181" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="2" t="n">
+      <c r="E181" s="2">
         <v>14751.24</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
         <v>2023</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3518,12 +3470,12 @@
       <c r="D182" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E182" s="2" t="n">
+      <c r="E182" s="2">
         <v>25619.05</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
         <v>2023</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -3535,12 +3487,12 @@
       <c r="D183" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="2" t="n">
+      <c r="E183" s="2">
         <v>7528.49</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
         <v>2024</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -3552,12 +3504,12 @@
       <c r="D184" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="2" t="n">
+      <c r="E184" s="2">
         <v>11700.91</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
         <v>2023</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3569,12 +3521,12 @@
       <c r="D185" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E185" s="2" t="n">
-        <v>16461.44</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
+      <c r="E185" s="2">
+        <v>16461.439999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
         <v>2024</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -3586,12 +3538,12 @@
       <c r="D186" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E186" s="2" t="n">
+      <c r="E186" s="2">
         <v>29173.5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
         <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -3603,12 +3555,12 @@
       <c r="D187" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E187" s="2" t="n">
+      <c r="E187" s="2">
         <v>42510.18</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
         <v>2024</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -3620,12 +3572,12 @@
       <c r="D188" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E188" s="2" t="n">
+      <c r="E188" s="2">
         <v>25339.59</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
         <v>2023</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -3637,12 +3589,12 @@
       <c r="D189" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E189" s="2" t="n">
+      <c r="E189" s="2">
         <v>33049.25</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
         <v>2023</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -3654,12 +3606,12 @@
       <c r="D190" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="2" t="n">
+      <c r="E190" s="2">
         <v>30632.91</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
         <v>2023</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -3671,12 +3623,12 @@
       <c r="D191" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E191" s="2" t="n">
+      <c r="E191" s="2">
         <v>22750.6</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
         <v>2024</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -3688,12 +3640,12 @@
       <c r="D192" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="2" t="n">
+      <c r="E192" s="2">
         <v>1421.28</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
         <v>2024</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -3705,12 +3657,12 @@
       <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E193" s="2" t="n">
+      <c r="E193" s="2">
         <v>42048.77</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
         <v>2023</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -3722,12 +3674,12 @@
       <c r="D194" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E194" s="2" t="n">
+      <c r="E194" s="2">
         <v>11727.24</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
         <v>2024</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -3739,12 +3691,12 @@
       <c r="D195" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E195" s="2" t="n">
+      <c r="E195" s="2">
         <v>48475.92</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
         <v>2024</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -3756,12 +3708,12 @@
       <c r="D196" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E196" s="2" t="n">
-        <v>41304.2</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="n">
+      <c r="E196" s="2">
+        <v>41304.199999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
         <v>2024</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -3773,12 +3725,12 @@
       <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="2" t="n">
+      <c r="E197" s="2">
         <v>13063.3</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
         <v>2023</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -3790,12 +3742,12 @@
       <c r="D198" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E198" s="2" t="n">
+      <c r="E198" s="2">
         <v>49189.85</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
         <v>2024</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -3807,12 +3759,12 @@
       <c r="D199" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E199" s="2" t="n">
+      <c r="E199" s="2">
         <v>16224.35</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
         <v>2023</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -3824,12 +3776,12 @@
       <c r="D200" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E200" s="2" t="n">
+      <c r="E200" s="2">
         <v>45995.28</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
         <v>2024</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -3841,12 +3793,12 @@
       <c r="D201" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E201" s="2" t="n">
+      <c r="E201" s="2">
         <v>44009.98</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
         <v>2023</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -3858,12 +3810,12 @@
       <c r="D202" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E202" s="2" t="n">
+      <c r="E202" s="2">
         <v>43785.8</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
         <v>2023</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -3875,12 +3827,12 @@
       <c r="D203" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="2" t="n">
+      <c r="E203" s="2">
         <v>14160.59</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
         <v>2023</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -3892,12 +3844,12 @@
       <c r="D204" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E204" s="2" t="n">
+      <c r="E204" s="2">
         <v>46903.48</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
         <v>2023</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -3909,12 +3861,12 @@
       <c r="D205" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E205" s="2" t="n">
+      <c r="E205" s="2">
         <v>6821.24</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
         <v>2024</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -3926,12 +3878,12 @@
       <c r="D206" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E206" s="2" t="n">
+      <c r="E206" s="2">
         <v>3125.72</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
         <v>2024</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -3943,12 +3895,12 @@
       <c r="D207" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E207" s="2" t="n">
+      <c r="E207" s="2">
         <v>49221.82</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
         <v>2023</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -3960,12 +3912,12 @@
       <c r="D208" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E208" s="2" t="n">
+      <c r="E208" s="2">
         <v>32927.11</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
         <v>2024</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -3977,12 +3929,12 @@
       <c r="D209" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E209" s="2" t="n">
+      <c r="E209" s="2">
         <v>4609.29</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
         <v>2023</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -3994,12 +3946,12 @@
       <c r="D210" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E210" s="2" t="n">
+      <c r="E210" s="2">
         <v>11119.64</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4011,12 +3963,12 @@
       <c r="D211" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E211" s="2" t="n">
+      <c r="E211" s="2">
         <v>28106.55</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4028,12 +3980,12 @@
       <c r="D212" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E212" s="2" t="n">
+      <c r="E212" s="2">
         <v>13089.42</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
         <v>2023</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4045,12 +3997,12 @@
       <c r="D213" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="2" t="n">
+      <c r="E213" s="2">
         <v>16021.35</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
         <v>2023</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4062,12 +4014,12 @@
       <c r="D214" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E214" s="2" t="n">
-        <v>17080.49</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="n">
+      <c r="E214" s="2">
+        <v>17080.490000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
         <v>2024</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -4079,12 +4031,12 @@
       <c r="D215" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E215" s="2" t="n">
+      <c r="E215" s="2">
         <v>47720.67</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
         <v>2024</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -4096,12 +4048,12 @@
       <c r="D216" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E216" s="2" t="n">
+      <c r="E216" s="2">
         <v>49958.74</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
         <v>2024</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -4113,12 +4065,12 @@
       <c r="D217" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E217" s="2" t="n">
+      <c r="E217" s="2">
         <v>28804.36</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
         <v>2024</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -4130,12 +4082,12 @@
       <c r="D218" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="2" t="n">
+      <c r="E218" s="2">
         <v>8926.15</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -4147,12 +4099,12 @@
       <c r="D219" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="2" t="n">
+      <c r="E219" s="2">
         <v>30297.31</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
         <v>2023</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -4164,12 +4116,12 @@
       <c r="D220" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E220" s="2" t="n">
+      <c r="E220" s="2">
         <v>7439.45</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
         <v>2023</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -4181,12 +4133,12 @@
       <c r="D221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="n">
-        <v>49259.84</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="n">
+      <c r="E221" s="2">
+        <v>49259.839999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
         <v>2023</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -4198,12 +4150,12 @@
       <c r="D222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E222" s="2" t="n">
-        <v>36413.16</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="n">
+      <c r="E222" s="2">
+        <v>36413.160000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
         <v>2023</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -4215,12 +4167,12 @@
       <c r="D223" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E223" s="2" t="n">
+      <c r="E223" s="2">
         <v>30084.76</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
         <v>2023</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -4232,12 +4184,12 @@
       <c r="D224" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="2" t="n">
+      <c r="E224" s="2">
         <v>23915.06</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
         <v>2023</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -4249,12 +4201,12 @@
       <c r="D225" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="n">
+      <c r="E225" s="2">
         <v>14646.49</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -4266,12 +4218,12 @@
       <c r="D226" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E226" s="2" t="n">
+      <c r="E226" s="2">
         <v>44134.99</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
         <v>2023</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -4283,12 +4235,12 @@
       <c r="D227" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="2" t="n">
+      <c r="E227" s="2">
         <v>49557.55</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -4300,12 +4252,12 @@
       <c r="D228" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E228" s="2" t="n">
+      <c r="E228" s="2">
         <v>30915.53</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -4317,12 +4269,12 @@
       <c r="D229" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="2" t="n">
+      <c r="E229" s="2">
         <v>43783.97</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -4334,12 +4286,12 @@
       <c r="D230" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E230" s="2" t="n">
+      <c r="E230" s="2">
         <v>47075.92</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -4351,12 +4303,12 @@
       <c r="D231" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="2" t="n">
+      <c r="E231" s="2">
         <v>1507.28</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
         <v>2023</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -4368,12 +4320,12 @@
       <c r="D232" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E232" s="2" t="n">
+      <c r="E232" s="2">
         <v>49690.99</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
         <v>2023</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -4385,12 +4337,12 @@
       <c r="D233" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E233" s="2" t="n">
+      <c r="E233" s="2">
         <v>14722.65</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
         <v>2023</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -4402,12 +4354,12 @@
       <c r="D234" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="2" t="n">
+      <c r="E234" s="2">
         <v>6211.18</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -4419,12 +4371,12 @@
       <c r="D235" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E235" s="2" t="n">
+      <c r="E235" s="2">
         <v>27232.1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
         <v>2023</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -4436,12 +4388,12 @@
       <c r="D236" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E236" s="2" t="n">
-        <v>31720.64</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="n">
+      <c r="E236" s="2">
+        <v>31720.639999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
         <v>2024</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -4453,12 +4405,12 @@
       <c r="D237" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E237" s="2" t="n">
-        <v>35430.3</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="n">
+      <c r="E237" s="2">
+        <v>35430.300000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
         <v>2024</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -4470,12 +4422,12 @@
       <c r="D238" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="2" t="n">
+      <c r="E238" s="2">
         <v>24871.06</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -4487,12 +4439,12 @@
       <c r="D239" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E239" s="2" t="n">
-        <v>39574.41</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="n">
+      <c r="E239" s="2">
+        <v>39574.410000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
         <v>2023</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -4504,12 +4456,12 @@
       <c r="D240" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="2" t="n">
+      <c r="E240" s="2">
         <v>49269.18</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
         <v>2023</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -4521,12 +4473,12 @@
       <c r="D241" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E241" s="2" t="n">
+      <c r="E241" s="2">
         <v>44568.9</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
         <v>2024</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -4538,12 +4490,12 @@
       <c r="D242" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E242" s="2" t="n">
-        <v>4881.1</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="n">
+      <c r="E242" s="2">
+        <v>4881.1000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
         <v>2023</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -4555,12 +4507,12 @@
       <c r="D243" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E243" s="2" t="n">
+      <c r="E243" s="2">
         <v>25281.18</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
         <v>2023</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -4572,12 +4524,12 @@
       <c r="D244" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E244" s="2" t="n">
+      <c r="E244" s="2">
         <v>28033.29</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
         <v>2023</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -4589,12 +4541,12 @@
       <c r="D245" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="2" t="n">
+      <c r="E245" s="2">
         <v>42570.27</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
         <v>2023</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -4606,12 +4558,12 @@
       <c r="D246" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E246" s="2" t="n">
+      <c r="E246" s="2">
         <v>7801.47</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
         <v>2023</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -4623,12 +4575,12 @@
       <c r="D247" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E247" s="2" t="n">
+      <c r="E247" s="2">
         <v>36710.15</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
         <v>2024</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -4640,12 +4592,12 @@
       <c r="D248" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E248" s="2" t="n">
+      <c r="E248" s="2">
         <v>47890.46</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
         <v>2023</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -4657,12 +4609,12 @@
       <c r="D249" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="2" t="n">
+      <c r="E249" s="2">
         <v>2189.89</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
         <v>2024</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -4674,12 +4626,12 @@
       <c r="D250" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="n">
+      <c r="E250" s="2">
         <v>6158.12</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
         <v>2023</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -4691,12 +4643,12 @@
       <c r="D251" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E251" s="2" t="n">
+      <c r="E251" s="2">
         <v>22917.94</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
         <v>2024</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -4708,12 +4660,12 @@
       <c r="D252" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E252" s="2" t="n">
-        <v>30770.8</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="n">
+      <c r="E252" s="2">
+        <v>30770.799999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
         <v>2024</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -4725,12 +4677,12 @@
       <c r="D253" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E253" s="2" t="n">
-        <v>27143.2</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="n">
+      <c r="E253" s="2">
+        <v>27143.200000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
         <v>2024</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -4742,12 +4694,12 @@
       <c r="D254" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="n">
+      <c r="E254" s="2">
         <v>17145.04</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
         <v>2024</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -4759,12 +4711,12 @@
       <c r="D255" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E255" s="2" t="n">
+      <c r="E255" s="2">
         <v>7912.73</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
         <v>2024</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -4776,12 +4728,12 @@
       <c r="D256" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E256" s="2" t="n">
+      <c r="E256" s="2">
         <v>3635.98</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
         <v>2024</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -4793,12 +4745,12 @@
       <c r="D257" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E257" s="2" t="n">
+      <c r="E257" s="2">
         <v>46862.37</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
         <v>2023</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -4810,12 +4762,12 @@
       <c r="D258" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E258" s="2" t="n">
+      <c r="E258" s="2">
         <v>42688.21</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
         <v>2024</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -4827,12 +4779,12 @@
       <c r="D259" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="n">
+      <c r="E259" s="2">
         <v>49120.63</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
         <v>2024</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -4844,12 +4796,12 @@
       <c r="D260" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E260" s="2" t="n">
+      <c r="E260" s="2">
         <v>10637.28</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
         <v>2024</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -4861,12 +4813,12 @@
       <c r="D261" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E261" s="2" t="n">
+      <c r="E261" s="2">
         <v>20040.57</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
         <v>2023</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -4878,12 +4830,12 @@
       <c r="D262" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E262" s="2" t="n">
+      <c r="E262" s="2">
         <v>45966.2</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
         <v>2024</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -4895,12 +4847,12 @@
       <c r="D263" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E263" s="2" t="n">
+      <c r="E263" s="2">
         <v>15668.73</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
         <v>2024</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -4912,12 +4864,12 @@
       <c r="D264" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E264" s="2" t="n">
+      <c r="E264" s="2">
         <v>22158.15</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
         <v>2023</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -4929,12 +4881,12 @@
       <c r="D265" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E265" s="2" t="n">
-        <v>38558.34</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="n">
+      <c r="E265" s="2">
+        <v>38558.339999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
         <v>2024</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -4946,12 +4898,12 @@
       <c r="D266" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E266" s="2" t="n">
+      <c r="E266" s="2">
         <v>8976.81</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
         <v>2023</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -4963,12 +4915,12 @@
       <c r="D267" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E267" s="2" t="n">
+      <c r="E267" s="2">
         <v>26875.11</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
         <v>2024</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -4980,12 +4932,12 @@
       <c r="D268" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E268" s="2" t="n">
+      <c r="E268" s="2">
         <v>15162</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
         <v>2024</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -4997,12 +4949,12 @@
       <c r="D269" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E269" s="2" t="n">
+      <c r="E269" s="2">
         <v>12330.14</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
         <v>2024</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -5014,12 +4966,12 @@
       <c r="D270" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="n">
+      <c r="E270" s="2">
         <v>26543.9</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
         <v>2024</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -5031,12 +4983,12 @@
       <c r="D271" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E271" s="2" t="n">
+      <c r="E271" s="2">
         <v>30180.21</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
         <v>2023</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -5048,12 +5000,12 @@
       <c r="D272" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E272" s="2" t="n">
+      <c r="E272" s="2">
         <v>24935.98</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
         <v>2024</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -5065,12 +5017,12 @@
       <c r="D273" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E273" s="2" t="n">
+      <c r="E273" s="2">
         <v>21053.51</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
         <v>2024</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -5082,12 +5034,12 @@
       <c r="D274" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E274" s="2" t="n">
+      <c r="E274" s="2">
         <v>14953.29</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
         <v>2023</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -5099,12 +5051,12 @@
       <c r="D275" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E275" s="2" t="n">
+      <c r="E275" s="2">
         <v>40753.85</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
         <v>2023</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -5116,12 +5068,12 @@
       <c r="D276" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E276" s="2" t="n">
-        <v>38937.55</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="n">
+      <c r="E276" s="2">
+        <v>38937.550000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
         <v>2023</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -5133,12 +5085,12 @@
       <c r="D277" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E277" s="2" t="n">
+      <c r="E277" s="2">
         <v>33772.46</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
         <v>2024</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -5150,12 +5102,12 @@
       <c r="D278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="2" t="n">
+      <c r="E278" s="2">
         <v>2276.65</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
         <v>2023</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -5167,12 +5119,12 @@
       <c r="D279" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E279" s="2" t="n">
+      <c r="E279" s="2">
         <v>26007.68</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
         <v>2023</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -5184,12 +5136,12 @@
       <c r="D280" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E280" s="2" t="n">
+      <c r="E280" s="2">
         <v>35087.01</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
         <v>2023</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -5201,12 +5153,12 @@
       <c r="D281" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E281" s="2" t="n">
+      <c r="E281" s="2">
         <v>39688.14</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
         <v>2023</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -5218,12 +5170,12 @@
       <c r="D282" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E282" s="2" t="n">
+      <c r="E282" s="2">
         <v>26872.78</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
         <v>2023</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -5235,12 +5187,12 @@
       <c r="D283" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E283" s="2" t="n">
+      <c r="E283" s="2">
         <v>38889.17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
         <v>2024</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -5252,12 +5204,12 @@
       <c r="D284" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E284" s="2" t="n">
+      <c r="E284" s="2">
         <v>26862.95</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
         <v>2023</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5269,12 +5221,12 @@
       <c r="D285" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E285" s="2" t="n">
+      <c r="E285" s="2">
         <v>43367.27</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
         <v>2024</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -5286,12 +5238,12 @@
       <c r="D286" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E286" s="2" t="n">
+      <c r="E286" s="2">
         <v>42233.17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
         <v>2024</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -5303,12 +5255,12 @@
       <c r="D287" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="2" t="n">
+      <c r="E287" s="2">
         <v>38860.15</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
         <v>2023</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -5320,12 +5272,12 @@
       <c r="D288" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E288" s="2" t="n">
+      <c r="E288" s="2">
         <v>49739.82</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
         <v>2024</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -5337,12 +5289,12 @@
       <c r="D289" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E289" s="2" t="n">
-        <v>42779.84</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="n">
+      <c r="E289" s="2">
+        <v>42779.839999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
         <v>2024</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -5354,12 +5306,12 @@
       <c r="D290" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E290" s="2" t="n">
+      <c r="E290" s="2">
         <v>47465.99</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
         <v>2023</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -5371,12 +5323,12 @@
       <c r="D291" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E291" s="2" t="n">
+      <c r="E291" s="2">
         <v>22050.48</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
         <v>2024</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -5388,12 +5340,12 @@
       <c r="D292" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E292" s="2" t="n">
-        <v>37705.8</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="n">
+      <c r="E292" s="2">
+        <v>37705.800000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
         <v>2024</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -5405,12 +5357,12 @@
       <c r="D293" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E293" s="2" t="n">
+      <c r="E293" s="2">
         <v>14158.17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
         <v>2023</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -5422,12 +5374,12 @@
       <c r="D294" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E294" s="2" t="n">
+      <c r="E294" s="2">
         <v>30550.55</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
         <v>2023</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -5439,12 +5391,12 @@
       <c r="D295" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E295" s="2" t="n">
-        <v>17714.74</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="n">
+      <c r="E295" s="2">
+        <v>17714.740000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
         <v>2024</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -5456,12 +5408,12 @@
       <c r="D296" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E296" s="2" t="n">
+      <c r="E296" s="2">
         <v>43726.15</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
         <v>2024</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -5473,12 +5425,12 @@
       <c r="D297" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E297" s="2" t="n">
+      <c r="E297" s="2">
         <v>27179.4</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
         <v>2024</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -5490,12 +5442,12 @@
       <c r="D298" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E298" s="2" t="n">
+      <c r="E298" s="2">
         <v>38949.21</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
         <v>2024</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -5507,12 +5459,12 @@
       <c r="D299" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E299" s="2" t="n">
+      <c r="E299" s="2">
         <v>22549.66</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
         <v>2023</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -5524,12 +5476,12 @@
       <c r="D300" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E300" s="2" t="n">
+      <c r="E300" s="2">
         <v>9693.9</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
         <v>2023</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -5541,12 +5493,12 @@
       <c r="D301" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E301" s="2" t="n">
+      <c r="E301" s="2">
         <v>3171.4</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
         <v>2023</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -5558,12 +5510,12 @@
       <c r="D302" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E302" s="2" t="n">
+      <c r="E302" s="2">
         <v>41227.47</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
         <v>2023</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -5575,12 +5527,12 @@
       <c r="D303" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E303" s="2" t="n">
+      <c r="E303" s="2">
         <v>5314.68</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
         <v>2023</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -5592,12 +5544,12 @@
       <c r="D304" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E304" s="2" t="n">
+      <c r="E304" s="2">
         <v>44691.03</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
         <v>2023</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -5609,12 +5561,12 @@
       <c r="D305" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E305" s="2" t="n">
+      <c r="E305" s="2">
         <v>30310.32</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
         <v>2023</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -5626,12 +5578,12 @@
       <c r="D306" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E306" s="2" t="n">
-        <v>35658.64</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="n">
+      <c r="E306" s="2">
+        <v>35658.639999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
         <v>2023</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -5643,12 +5595,12 @@
       <c r="D307" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E307" s="2" t="n">
+      <c r="E307" s="2">
         <v>14178.03</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
         <v>2023</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -5660,12 +5612,12 @@
       <c r="D308" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E308" s="2" t="n">
+      <c r="E308" s="2">
         <v>41457.97</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
         <v>2023</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -5677,12 +5629,12 @@
       <c r="D309" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E309" s="2" t="n">
+      <c r="E309" s="2">
         <v>19946.52</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
         <v>2023</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -5694,12 +5646,12 @@
       <c r="D310" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E310" s="2" t="n">
+      <c r="E310" s="2">
         <v>17770.14</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
         <v>2024</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -5711,12 +5663,12 @@
       <c r="D311" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E311" s="2" t="n">
+      <c r="E311" s="2">
         <v>8127.75</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
         <v>2024</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -5728,12 +5680,12 @@
       <c r="D312" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E312" s="2" t="n">
+      <c r="E312" s="2">
         <v>48698.13</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
         <v>2024</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -5745,12 +5697,12 @@
       <c r="D313" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E313" s="2" t="n">
+      <c r="E313" s="2">
         <v>45636.28</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
         <v>2024</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -5762,12 +5714,12 @@
       <c r="D314" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E314" s="2" t="n">
+      <c r="E314" s="2">
         <v>12681.92</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
         <v>2024</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -5779,12 +5731,12 @@
       <c r="D315" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E315" s="2" t="n">
+      <c r="E315" s="2">
         <v>49917.73</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
         <v>2024</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -5796,12 +5748,12 @@
       <c r="D316" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E316" s="2" t="n">
+      <c r="E316" s="2">
         <v>26741.06</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
         <v>2023</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -5813,12 +5765,12 @@
       <c r="D317" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E317" s="2" t="n">
-        <v>10000.03</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="n">
+      <c r="E317" s="2">
+        <v>10000.030000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
         <v>2023</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -5830,12 +5782,12 @@
       <c r="D318" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E318" s="2" t="n">
+      <c r="E318" s="2">
         <v>31857.52</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
         <v>2023</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -5847,12 +5799,12 @@
       <c r="D319" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E319" s="2" t="n">
-        <v>37672.88</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="n">
+      <c r="E319" s="2">
+        <v>37672.879999999997</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
         <v>2024</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -5864,12 +5816,12 @@
       <c r="D320" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E320" s="2" t="n">
+      <c r="E320" s="2">
         <v>37108.82</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
         <v>2023</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -5881,12 +5833,12 @@
       <c r="D321" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E321" s="2" t="n">
-        <v>24795.76</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="n">
+      <c r="E321" s="2">
+        <v>24795.759999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
         <v>2024</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -5898,12 +5850,12 @@
       <c r="D322" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E322" s="2" t="n">
+      <c r="E322" s="2">
         <v>33416.11</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
         <v>2024</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -5915,12 +5867,12 @@
       <c r="D323" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E323" s="2" t="n">
+      <c r="E323" s="2">
         <v>1934.55</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
         <v>2023</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -5932,12 +5884,12 @@
       <c r="D324" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E324" s="2" t="n">
-        <v>35995.76</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="n">
+      <c r="E324" s="2">
+        <v>35995.760000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
         <v>2024</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -5949,12 +5901,12 @@
       <c r="D325" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E325" s="2" t="n">
+      <c r="E325" s="2">
         <v>24342.19</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
         <v>2024</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -5966,12 +5918,12 @@
       <c r="D326" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E326" s="2" t="n">
+      <c r="E326" s="2">
         <v>35916.94</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
         <v>2023</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -5983,12 +5935,12 @@
       <c r="D327" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E327" s="2" t="n">
+      <c r="E327" s="2">
         <v>26301.01</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
         <v>2024</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6000,12 +5952,12 @@
       <c r="D328" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E328" s="2" t="n">
+      <c r="E328" s="2">
         <v>38475.97</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
         <v>2024</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -6017,12 +5969,12 @@
       <c r="D329" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E329" s="2" t="n">
+      <c r="E329" s="2">
         <v>27733.55</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
         <v>2024</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -6034,12 +5986,12 @@
       <c r="D330" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E330" s="2" t="n">
+      <c r="E330" s="2">
         <v>25139.68</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
         <v>2024</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6051,12 +6003,12 @@
       <c r="D331" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E331" s="2" t="n">
+      <c r="E331" s="2">
         <v>6427.43</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
         <v>2024</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6068,12 +6020,12 @@
       <c r="D332" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E332" s="2" t="n">
+      <c r="E332" s="2">
         <v>24572.13</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
         <v>2024</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6085,12 +6037,12 @@
       <c r="D333" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E333" s="2" t="n">
-        <v>42346.08</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="n">
+      <c r="E333" s="2">
+        <v>42346.080000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
         <v>2024</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6102,12 +6054,12 @@
       <c r="D334" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E334" s="2" t="n">
+      <c r="E334" s="2">
         <v>23231.61</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
         <v>2024</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6119,12 +6071,12 @@
       <c r="D335" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E335" s="2" t="n">
+      <c r="E335" s="2">
         <v>41283.58</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
         <v>2024</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6136,12 +6088,12 @@
       <c r="D336" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E336" s="2" t="n">
+      <c r="E336" s="2">
         <v>19795.38</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
         <v>2023</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6153,12 +6105,12 @@
       <c r="D337" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E337" s="2" t="n">
+      <c r="E337" s="2">
         <v>25770.48</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
         <v>2024</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6170,12 +6122,12 @@
       <c r="D338" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E338" s="2" t="n">
+      <c r="E338" s="2">
         <v>15688.63</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
         <v>2024</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6187,12 +6139,12 @@
       <c r="D339" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E339" s="2" t="n">
-        <v>36377.76</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="n">
+      <c r="E339" s="2">
+        <v>36377.760000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
         <v>2024</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6204,12 +6156,12 @@
       <c r="D340" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E340" s="2" t="n">
+      <c r="E340" s="2">
         <v>26299.4</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
         <v>2023</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6221,12 +6173,12 @@
       <c r="D341" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E341" s="2" t="n">
+      <c r="E341" s="2">
         <v>2848.9</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
         <v>2024</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6238,12 +6190,12 @@
       <c r="D342" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E342" s="2" t="n">
+      <c r="E342" s="2">
         <v>23272.39</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
         <v>2023</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6255,12 +6207,12 @@
       <c r="D343" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E343" s="2" t="n">
-        <v>39744.96</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="n">
+      <c r="E343" s="2">
+        <v>39744.959999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
         <v>2024</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6272,12 +6224,12 @@
       <c r="D344" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E344" s="2" t="n">
+      <c r="E344" s="2">
         <v>28470.81</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
         <v>2024</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6289,12 +6241,12 @@
       <c r="D345" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E345" s="2" t="n">
+      <c r="E345" s="2">
         <v>7609.22</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
         <v>2024</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -6306,12 +6258,12 @@
       <c r="D346" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E346" s="2" t="n">
+      <c r="E346" s="2">
         <v>10832.17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
         <v>2023</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -6323,12 +6275,12 @@
       <c r="D347" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E347" s="2" t="n">
+      <c r="E347" s="2">
         <v>15457.55</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
         <v>2024</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -6340,12 +6292,12 @@
       <c r="D348" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E348" s="2" t="n">
+      <c r="E348" s="2">
         <v>23316.38</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
         <v>2024</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -6357,12 +6309,12 @@
       <c r="D349" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E349" s="2" t="n">
+      <c r="E349" s="2">
         <v>35707.49</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
         <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -6374,12 +6326,12 @@
       <c r="D350" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E350" s="2" t="n">
+      <c r="E350" s="2">
         <v>15617.11</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
         <v>2024</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -6391,12 +6343,12 @@
       <c r="D351" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E351" s="2" t="n">
+      <c r="E351" s="2">
         <v>15657.67</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
         <v>2024</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -6408,12 +6360,12 @@
       <c r="D352" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E352" s="2" t="n">
+      <c r="E352" s="2">
         <v>18292.73</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
         <v>2023</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -6425,12 +6377,12 @@
       <c r="D353" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E353" s="2" t="n">
+      <c r="E353" s="2">
         <v>28401.91</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
         <v>2024</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -6442,12 +6394,12 @@
       <c r="D354" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E354" s="2" t="n">
+      <c r="E354" s="2">
         <v>32130.43</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
         <v>2023</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -6459,12 +6411,12 @@
       <c r="D355" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E355" s="2" t="n">
-        <v>34090.09</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="n">
+      <c r="E355" s="2">
+        <v>34090.089999999997</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
         <v>2024</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -6476,12 +6428,12 @@
       <c r="D356" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E356" s="2" t="n">
-        <v>35799.84</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="n">
+      <c r="E356" s="2">
+        <v>35799.839999999997</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
         <v>2023</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -6493,12 +6445,12 @@
       <c r="D357" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E357" s="2" t="n">
+      <c r="E357" s="2">
         <v>17123.91</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
         <v>2023</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -6510,12 +6462,12 @@
       <c r="D358" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E358" s="2" t="n">
+      <c r="E358" s="2">
         <v>48559.27</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
         <v>2024</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -6527,12 +6479,12 @@
       <c r="D359" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E359" s="2" t="n">
-        <v>24853.12</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="n">
+      <c r="E359" s="2">
+        <v>24853.119999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
         <v>2024</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -6544,12 +6496,12 @@
       <c r="D360" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E360" s="2" t="n">
+      <c r="E360" s="2">
         <v>34208.03</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
         <v>2023</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -6561,12 +6513,12 @@
       <c r="D361" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E361" s="2" t="n">
+      <c r="E361" s="2">
         <v>45813.79</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
         <v>2023</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -6578,12 +6530,12 @@
       <c r="D362" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E362" s="2" t="n">
+      <c r="E362" s="2">
         <v>46166.53</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
         <v>2024</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -6595,12 +6547,12 @@
       <c r="D363" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E363" s="2" t="n">
+      <c r="E363" s="2">
         <v>20972.43</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
         <v>2023</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -6612,12 +6564,12 @@
       <c r="D364" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E364" s="2" t="n">
+      <c r="E364" s="2">
         <v>1239.01</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
         <v>2024</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -6629,12 +6581,12 @@
       <c r="D365" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E365" s="2" t="n">
+      <c r="E365" s="2">
         <v>24768.18</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
         <v>2023</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -6646,12 +6598,12 @@
       <c r="D366" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E366" s="2" t="n">
-        <v>17149.67</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="2" t="n">
+      <c r="E366" s="2">
+        <v>17149.669999999998</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
         <v>2023</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -6663,12 +6615,12 @@
       <c r="D367" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E367" s="2" t="n">
+      <c r="E367" s="2">
         <v>20533.86</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
         <v>2024</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -6680,12 +6632,12 @@
       <c r="D368" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E368" s="2" t="n">
+      <c r="E368" s="2">
         <v>12260.52</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
         <v>2024</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -6697,12 +6649,12 @@
       <c r="D369" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E369" s="2" t="n">
-        <v>36767.34</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="n">
+      <c r="E369" s="2">
+        <v>36767.339999999997</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
         <v>2023</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -6714,12 +6666,12 @@
       <c r="D370" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E370" s="2" t="n">
+      <c r="E370" s="2">
         <v>6269.64</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
         <v>2023</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -6731,12 +6683,12 @@
       <c r="D371" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E371" s="2" t="n">
+      <c r="E371" s="2">
         <v>30955.21</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
         <v>2023</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -6748,12 +6700,12 @@
       <c r="D372" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E372" s="2" t="n">
+      <c r="E372" s="2">
         <v>21662.33</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
         <v>2024</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -6765,12 +6717,12 @@
       <c r="D373" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E373" s="2" t="n">
-        <v>18830.15</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="n">
+      <c r="E373" s="2">
+        <v>18830.150000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
         <v>2023</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -6782,12 +6734,12 @@
       <c r="D374" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E374" s="2" t="n">
+      <c r="E374" s="2">
         <v>4188.08</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
         <v>2024</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -6799,12 +6751,12 @@
       <c r="D375" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E375" s="2" t="n">
+      <c r="E375" s="2">
         <v>939.99</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
         <v>2024</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -6816,12 +6768,12 @@
       <c r="D376" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E376" s="2" t="n">
+      <c r="E376" s="2">
         <v>20560.7</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
         <v>2024</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -6833,12 +6785,12 @@
       <c r="D377" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E377" s="2" t="n">
+      <c r="E377" s="2">
         <v>2704.2</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
         <v>2024</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -6850,12 +6802,12 @@
       <c r="D378" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E378" s="2" t="n">
+      <c r="E378" s="2">
         <v>12087.4</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
         <v>2024</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -6867,12 +6819,12 @@
       <c r="D379" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E379" s="2" t="n">
+      <c r="E379" s="2">
         <v>34708.43</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
         <v>2023</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -6884,12 +6836,12 @@
       <c r="D380" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E380" s="2" t="n">
+      <c r="E380" s="2">
         <v>38276.86</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
         <v>2023</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -6901,12 +6853,12 @@
       <c r="D381" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E381" s="2" t="n">
+      <c r="E381" s="2">
         <v>43770.91</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
         <v>2024</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -6918,12 +6870,12 @@
       <c r="D382" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E382" s="2" t="n">
+      <c r="E382" s="2">
         <v>21016.94</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
         <v>2023</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -6935,12 +6887,12 @@
       <c r="D383" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E383" s="2" t="n">
+      <c r="E383" s="2">
         <v>13469.16</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
         <v>2023</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -6952,12 +6904,12 @@
       <c r="D384" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E384" s="2" t="n">
+      <c r="E384" s="2">
         <v>20768.93</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
         <v>2024</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -6969,12 +6921,12 @@
       <c r="D385" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E385" s="2" t="n">
+      <c r="E385" s="2">
         <v>1446.16</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
         <v>2024</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -6986,12 +6938,12 @@
       <c r="D386" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E386" s="2" t="n">
+      <c r="E386" s="2">
         <v>25635.05</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
         <v>2023</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -7003,12 +6955,12 @@
       <c r="D387" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E387" s="2" t="n">
+      <c r="E387" s="2">
         <v>44399.85</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
         <v>2023</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -7020,12 +6972,12 @@
       <c r="D388" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E388" s="2" t="n">
+      <c r="E388" s="2">
         <v>2636</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
         <v>2024</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -7037,12 +6989,12 @@
       <c r="D389" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E389" s="2" t="n">
+      <c r="E389" s="2">
         <v>12567.34</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
         <v>2023</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -7054,12 +7006,12 @@
       <c r="D390" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E390" s="2" t="n">
-        <v>2392.47</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="n">
+      <c r="E390" s="2">
+        <v>2392.4699999999998</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
         <v>2024</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -7071,12 +7023,12 @@
       <c r="D391" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E391" s="2" t="n">
+      <c r="E391" s="2">
         <v>17425.13</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
         <v>2024</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -7088,12 +7040,12 @@
       <c r="D392" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E392" s="2" t="n">
+      <c r="E392" s="2">
         <v>40660.81</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
         <v>2023</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -7105,12 +7057,12 @@
       <c r="D393" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E393" s="2" t="n">
-        <v>37488.08</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="2" t="n">
+      <c r="E393" s="2">
+        <v>37488.080000000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
         <v>2024</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -7122,12 +7074,12 @@
       <c r="D394" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E394" s="2" t="n">
+      <c r="E394" s="2">
         <v>22362.18</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
         <v>2024</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -7139,12 +7091,12 @@
       <c r="D395" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E395" s="2" t="n">
+      <c r="E395" s="2">
         <v>14188.05</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
         <v>2023</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -7156,12 +7108,12 @@
       <c r="D396" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E396" s="2" t="n">
+      <c r="E396" s="2">
         <v>30891.4</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
         <v>2023</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -7173,12 +7125,12 @@
       <c r="D397" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E397" s="2" t="n">
+      <c r="E397" s="2">
         <v>25766.05</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
         <v>2024</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -7190,12 +7142,12 @@
       <c r="D398" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E398" s="2" t="n">
+      <c r="E398" s="2">
         <v>41547.85</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
         <v>2024</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -7207,12 +7159,12 @@
       <c r="D399" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E399" s="2" t="n">
+      <c r="E399" s="2">
         <v>24673.4</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
         <v>2023</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -7224,12 +7176,12 @@
       <c r="D400" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E400" s="2" t="n">
+      <c r="E400" s="2">
         <v>6055.41</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
         <v>2023</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -7241,12 +7193,12 @@
       <c r="D401" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E401" s="2" t="n">
-        <v>4592.85</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="2" t="n">
+      <c r="E401" s="2">
+        <v>4592.8500000000004</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
         <v>2024</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -7258,12 +7210,12 @@
       <c r="D402" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E402" s="2" t="n">
+      <c r="E402" s="2">
         <v>15062.14</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
         <v>2024</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7275,12 +7227,12 @@
       <c r="D403" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E403" s="2" t="n">
+      <c r="E403" s="2">
         <v>43538.49</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
         <v>2024</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -7292,12 +7244,12 @@
       <c r="D404" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E404" s="2" t="n">
+      <c r="E404" s="2">
         <v>11520.86</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
         <v>2024</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -7309,12 +7261,12 @@
       <c r="D405" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E405" s="2" t="n">
+      <c r="E405" s="2">
         <v>26015.14</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
         <v>2023</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -7326,12 +7278,12 @@
       <c r="D406" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E406" s="2" t="n">
+      <c r="E406" s="2">
         <v>12898.79</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
         <v>2024</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -7343,12 +7295,12 @@
       <c r="D407" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E407" s="2" t="n">
-        <v>34632.4</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="n">
+      <c r="E407" s="2">
+        <v>34632.400000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
         <v>2023</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -7360,12 +7312,12 @@
       <c r="D408" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E408" s="2" t="n">
+      <c r="E408" s="2">
         <v>26990.79</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
         <v>2024</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -7377,12 +7329,12 @@
       <c r="D409" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E409" s="2" t="n">
+      <c r="E409" s="2">
         <v>47471.09</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
         <v>2023</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -7394,12 +7346,12 @@
       <c r="D410" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E410" s="2" t="n">
+      <c r="E410" s="2">
         <v>12106.79</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
         <v>2023</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -7411,12 +7363,12 @@
       <c r="D411" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E411" s="2" t="n">
+      <c r="E411" s="2">
         <v>19720.47</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
         <v>2024</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -7428,12 +7380,12 @@
       <c r="D412" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E412" s="2" t="n">
+      <c r="E412" s="2">
         <v>22125.4</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
         <v>2024</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -7445,12 +7397,12 @@
       <c r="D413" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E413" s="2" t="n">
+      <c r="E413" s="2">
         <v>16666.27</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
         <v>2023</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -7462,12 +7414,12 @@
       <c r="D414" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E414" s="2" t="n">
+      <c r="E414" s="2">
         <v>1235.01</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
         <v>2024</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -7479,12 +7431,12 @@
       <c r="D415" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E415" s="2" t="n">
+      <c r="E415" s="2">
         <v>33713.33</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
         <v>2024</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -7496,12 +7448,12 @@
       <c r="D416" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E416" s="2" t="n">
+      <c r="E416" s="2">
         <v>12149.28</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
         <v>2023</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -7513,12 +7465,12 @@
       <c r="D417" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E417" s="2" t="n">
+      <c r="E417" s="2">
         <v>45830.83</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
         <v>2023</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -7530,12 +7482,12 @@
       <c r="D418" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E418" s="2" t="n">
+      <c r="E418" s="2">
         <v>44475.42</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
         <v>2024</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -7547,12 +7499,12 @@
       <c r="D419" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E419" s="2" t="n">
+      <c r="E419" s="2">
         <v>37604.49</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
         <v>2023</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -7564,12 +7516,12 @@
       <c r="D420" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E420" s="2" t="n">
+      <c r="E420" s="2">
         <v>34309.18</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
         <v>2024</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -7581,12 +7533,12 @@
       <c r="D421" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E421" s="2" t="n">
+      <c r="E421" s="2">
         <v>36126.67</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
         <v>2023</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -7598,12 +7550,12 @@
       <c r="D422" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E422" s="2" t="n">
+      <c r="E422" s="2">
         <v>13076.46</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
         <v>2023</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -7615,12 +7567,12 @@
       <c r="D423" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E423" s="2" t="n">
+      <c r="E423" s="2">
         <v>44187.88</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
         <v>2023</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -7632,12 +7584,12 @@
       <c r="D424" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E424" s="2" t="n">
+      <c r="E424" s="2">
         <v>29524.28</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
         <v>2024</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -7649,12 +7601,12 @@
       <c r="D425" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E425" s="2" t="n">
+      <c r="E425" s="2">
         <v>4268.41</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
         <v>2023</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -7666,12 +7618,12 @@
       <c r="D426" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E426" s="2" t="n">
+      <c r="E426" s="2">
         <v>21508.91</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
         <v>2024</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -7683,12 +7635,12 @@
       <c r="D427" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E427" s="2" t="n">
+      <c r="E427" s="2">
         <v>28639.33</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
         <v>2024</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -7700,12 +7652,12 @@
       <c r="D428" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E428" s="2" t="n">
+      <c r="E428" s="2">
         <v>26455.39</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
         <v>2024</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -7717,12 +7669,12 @@
       <c r="D429" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E429" s="2" t="n">
-        <v>36648.24</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="2" t="n">
+      <c r="E429" s="2">
+        <v>36648.239999999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
         <v>2023</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -7734,12 +7686,12 @@
       <c r="D430" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E430" s="2" t="n">
+      <c r="E430" s="2">
         <v>9352.35</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
         <v>2024</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -7751,12 +7703,12 @@
       <c r="D431" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E431" s="2" t="n">
+      <c r="E431" s="2">
         <v>21541.89</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
         <v>2024</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -7768,12 +7720,12 @@
       <c r="D432" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E432" s="2" t="n">
+      <c r="E432" s="2">
         <v>597.73</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
         <v>2023</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -7785,12 +7737,12 @@
       <c r="D433" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E433" s="2" t="n">
+      <c r="E433" s="2">
         <v>21844.42</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
         <v>2024</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -7802,12 +7754,12 @@
       <c r="D434" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E434" s="2" t="n">
+      <c r="E434" s="2">
         <v>13635.49</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
         <v>2024</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -7819,12 +7771,12 @@
       <c r="D435" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E435" s="2" t="n">
+      <c r="E435" s="2">
         <v>48934.25</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
         <v>2023</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -7836,12 +7788,12 @@
       <c r="D436" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E436" s="2" t="n">
+      <c r="E436" s="2">
         <v>47094.3</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
         <v>2024</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -7853,12 +7805,12 @@
       <c r="D437" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E437" s="2" t="n">
+      <c r="E437" s="2">
         <v>43598.06</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
         <v>2023</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -7870,12 +7822,12 @@
       <c r="D438" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E438" s="2" t="n">
-        <v>38015.41</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2" t="n">
+      <c r="E438" s="2">
+        <v>38015.410000000003</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
         <v>2024</v>
       </c>
       <c r="B439" s="2" t="s">
@@ -7887,12 +7839,12 @@
       <c r="D439" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E439" s="2" t="n">
+      <c r="E439" s="2">
         <v>7558.45</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
         <v>2023</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -7904,12 +7856,12 @@
       <c r="D440" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E440" s="2" t="n">
+      <c r="E440" s="2">
         <v>14282.48</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
         <v>2024</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -7921,12 +7873,12 @@
       <c r="D441" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E441" s="2" t="n">
+      <c r="E441" s="2">
         <v>27143.34</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
         <v>2024</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -7938,12 +7890,12 @@
       <c r="D442" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E442" s="2" t="n">
-        <v>620.68</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2" t="n">
+      <c r="E442" s="2">
+        <v>620.67999999999995</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
         <v>2024</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -7955,12 +7907,12 @@
       <c r="D443" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E443" s="2" t="n">
-        <v>37188.62</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2" t="n">
+      <c r="E443" s="2">
+        <v>37188.620000000003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
         <v>2024</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -7972,12 +7924,12 @@
       <c r="D444" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E444" s="2" t="n">
+      <c r="E444" s="2">
         <v>15767.21</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
         <v>2023</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -7989,12 +7941,12 @@
       <c r="D445" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E445" s="2" t="n">
+      <c r="E445" s="2">
         <v>43113.06</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
         <v>2024</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -8006,12 +7958,12 @@
       <c r="D446" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E446" s="2" t="n">
+      <c r="E446" s="2">
         <v>3820.01</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
         <v>2023</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -8023,12 +7975,12 @@
       <c r="D447" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E447" s="2" t="n">
+      <c r="E447" s="2">
         <v>30270.44</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
         <v>2024</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -8040,12 +7992,12 @@
       <c r="D448" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E448" s="2" t="n">
+      <c r="E448" s="2">
         <v>22812.36</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
         <v>2023</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -8057,12 +8009,12 @@
       <c r="D449" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E449" s="2" t="n">
+      <c r="E449" s="2">
         <v>21591.83</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
         <v>2023</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -8074,12 +8026,12 @@
       <c r="D450" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E450" s="2" t="n">
+      <c r="E450" s="2">
         <v>46004.46</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
         <v>2024</v>
       </c>
       <c r="B451" s="2" t="s">
@@ -8091,12 +8043,12 @@
       <c r="D451" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E451" s="2" t="n">
+      <c r="E451" s="2">
         <v>49613.88</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
         <v>2024</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -8108,12 +8060,12 @@
       <c r="D452" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E452" s="2" t="n">
-        <v>40215.87</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="2" t="n">
+      <c r="E452" s="2">
+        <v>40215.870000000003</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
         <v>2024</v>
       </c>
       <c r="B453" s="2" t="s">
@@ -8125,12 +8077,12 @@
       <c r="D453" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E453" s="2" t="n">
+      <c r="E453" s="2">
         <v>8225.18</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
         <v>2023</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -8142,12 +8094,12 @@
       <c r="D454" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E454" s="2" t="n">
-        <v>39384.77</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="2" t="n">
+      <c r="E454" s="2">
+        <v>39384.769999999997</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
         <v>2024</v>
       </c>
       <c r="B455" s="2" t="s">
@@ -8159,12 +8111,12 @@
       <c r="D455" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E455" s="2" t="n">
+      <c r="E455" s="2">
         <v>39468</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
         <v>2023</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -8176,12 +8128,12 @@
       <c r="D456" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E456" s="2" t="n">
+      <c r="E456" s="2">
         <v>7422.87</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
         <v>2023</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -8193,12 +8145,12 @@
       <c r="D457" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E457" s="2" t="n">
+      <c r="E457" s="2">
         <v>12573.95</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
         <v>2024</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -8210,12 +8162,12 @@
       <c r="D458" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E458" s="2" t="n">
+      <c r="E458" s="2">
         <v>42852.95</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
         <v>2023</v>
       </c>
       <c r="B459" s="2" t="s">
@@ -8227,12 +8179,12 @@
       <c r="D459" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E459" s="2" t="n">
-        <v>41832.3</v>
-      </c>
-    </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="2" t="n">
+      <c r="E459" s="2">
+        <v>41832.300000000003</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
         <v>2024</v>
       </c>
       <c r="B460" s="2" t="s">
@@ -8244,12 +8196,12 @@
       <c r="D460" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E460" s="2" t="n">
+      <c r="E460" s="2">
         <v>44080.06</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
         <v>2024</v>
       </c>
       <c r="B461" s="2" t="s">
@@ -8261,12 +8213,12 @@
       <c r="D461" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E461" s="2" t="n">
+      <c r="E461" s="2">
         <v>16501.66</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
         <v>2024</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -8278,12 +8230,12 @@
       <c r="D462" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E462" s="2" t="n">
+      <c r="E462" s="2">
         <v>46578.95</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
         <v>2023</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -8295,12 +8247,12 @@
       <c r="D463" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E463" s="2" t="n">
+      <c r="E463" s="2">
         <v>14816.68</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
         <v>2023</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -8312,12 +8264,12 @@
       <c r="D464" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E464" s="2" t="n">
+      <c r="E464" s="2">
         <v>29243.54</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
         <v>2023</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -8329,12 +8281,12 @@
       <c r="D465" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E465" s="2" t="n">
+      <c r="E465" s="2">
         <v>26445.31</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
         <v>2024</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -8346,12 +8298,12 @@
       <c r="D466" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E466" s="2" t="n">
+      <c r="E466" s="2">
         <v>48789.34</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
         <v>2023</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -8363,12 +8315,12 @@
       <c r="D467" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E467" s="2" t="n">
+      <c r="E467" s="2">
         <v>30852.75</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
         <v>2023</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -8380,12 +8332,12 @@
       <c r="D468" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E468" s="2" t="n">
+      <c r="E468" s="2">
         <v>45306.05</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
         <v>2024</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -8397,12 +8349,12 @@
       <c r="D469" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E469" s="2" t="n">
+      <c r="E469" s="2">
         <v>38201.71</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
         <v>2024</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -8414,12 +8366,12 @@
       <c r="D470" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E470" s="2" t="n">
+      <c r="E470" s="2">
         <v>30048.61</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
         <v>2023</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -8431,12 +8383,12 @@
       <c r="D471" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E471" s="2" t="n">
-        <v>20723.65</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="2" t="n">
+      <c r="E471" s="2">
+        <v>20723.650000000001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
         <v>2023</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -8448,12 +8400,12 @@
       <c r="D472" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E472" s="2" t="n">
+      <c r="E472" s="2">
         <v>9222.61</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
         <v>2023</v>
       </c>
       <c r="B473" s="2" t="s">
@@ -8465,12 +8417,12 @@
       <c r="D473" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E473" s="2" t="n">
+      <c r="E473" s="2">
         <v>8241.4</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
         <v>2023</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -8482,12 +8434,12 @@
       <c r="D474" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E474" s="2" t="n">
+      <c r="E474" s="2">
         <v>22253.05</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
         <v>2023</v>
       </c>
       <c r="B475" s="2" t="s">
@@ -8499,12 +8451,12 @@
       <c r="D475" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E475" s="2" t="n">
+      <c r="E475" s="2">
         <v>22412.47</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
         <v>2023</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -8516,12 +8468,12 @@
       <c r="D476" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E476" s="2" t="n">
+      <c r="E476" s="2">
         <v>37331.9</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
         <v>2024</v>
       </c>
       <c r="B477" s="2" t="s">
@@ -8533,12 +8485,12 @@
       <c r="D477" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E477" s="2" t="n">
+      <c r="E477" s="2">
         <v>17761.91</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
         <v>2023</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -8550,12 +8502,12 @@
       <c r="D478" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E478" s="2" t="n">
+      <c r="E478" s="2">
         <v>45699.81</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
         <v>2023</v>
       </c>
       <c r="B479" s="2" t="s">
@@ -8567,12 +8519,12 @@
       <c r="D479" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E479" s="2" t="n">
+      <c r="E479" s="2">
         <v>26828.03</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
         <v>2023</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -8584,12 +8536,12 @@
       <c r="D480" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E480" s="2" t="n">
+      <c r="E480" s="2">
         <v>28466.13</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
         <v>2023</v>
       </c>
       <c r="B481" s="2" t="s">
@@ -8601,12 +8553,12 @@
       <c r="D481" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E481" s="2" t="n">
+      <c r="E481" s="2">
         <v>6850.08</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
         <v>2023</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -8618,12 +8570,12 @@
       <c r="D482" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E482" s="2" t="n">
+      <c r="E482" s="2">
         <v>27651.21</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
         <v>2024</v>
       </c>
       <c r="B483" s="2" t="s">
@@ -8635,12 +8587,12 @@
       <c r="D483" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E483" s="2" t="n">
+      <c r="E483" s="2">
         <v>36819.99</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
         <v>2023</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -8652,12 +8604,12 @@
       <c r="D484" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E484" s="2" t="n">
+      <c r="E484" s="2">
         <v>37321.56</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
         <v>2024</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -8669,12 +8621,12 @@
       <c r="D485" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E485" s="2" t="n">
+      <c r="E485" s="2">
         <v>36095.39</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
         <v>2024</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -8686,12 +8638,12 @@
       <c r="D486" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E486" s="2" t="n">
+      <c r="E486" s="2">
         <v>7336.59</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
         <v>2024</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -8703,12 +8655,12 @@
       <c r="D487" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E487" s="2" t="n">
-        <v>24272.56</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="2" t="n">
+      <c r="E487" s="2">
+        <v>24272.560000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
         <v>2023</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -8720,12 +8672,12 @@
       <c r="D488" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E488" s="2" t="n">
+      <c r="E488" s="2">
         <v>5699.81</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
         <v>2023</v>
       </c>
       <c r="B489" s="2" t="s">
@@ -8737,12 +8689,12 @@
       <c r="D489" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E489" s="2" t="n">
+      <c r="E489" s="2">
         <v>37999.56</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
         <v>2024</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -8754,12 +8706,12 @@
       <c r="D490" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E490" s="2" t="n">
-        <v>33754.41</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="2" t="n">
+      <c r="E490" s="2">
+        <v>33754.410000000003</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
         <v>2023</v>
       </c>
       <c r="B491" s="2" t="s">
@@ -8771,12 +8723,12 @@
       <c r="D491" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E491" s="2" t="n">
+      <c r="E491" s="2">
         <v>15956.47</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
         <v>2023</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -8788,12 +8740,12 @@
       <c r="D492" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E492" s="2" t="n">
-        <v>16662.58</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="2" t="n">
+      <c r="E492" s="2">
+        <v>16662.580000000002</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
         <v>2023</v>
       </c>
       <c r="B493" s="2" t="s">
@@ -8805,12 +8757,12 @@
       <c r="D493" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E493" s="2" t="n">
+      <c r="E493" s="2">
         <v>47029.43</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
         <v>2023</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -8822,12 +8774,12 @@
       <c r="D494" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E494" s="2" t="n">
-        <v>33834.09</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="2" t="n">
+      <c r="E494" s="2">
+        <v>33834.089999999997</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
         <v>2023</v>
       </c>
       <c r="B495" s="2" t="s">
@@ -8839,12 +8791,12 @@
       <c r="D495" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E495" s="2" t="n">
+      <c r="E495" s="2">
         <v>6465.23</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
         <v>2024</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -8856,12 +8808,12 @@
       <c r="D496" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E496" s="2" t="n">
+      <c r="E496" s="2">
         <v>31214.81</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
         <v>2024</v>
       </c>
       <c r="B497" s="2" t="s">
@@ -8873,12 +8825,12 @@
       <c r="D497" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E497" s="2" t="n">
+      <c r="E497" s="2">
         <v>14780.29</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
         <v>2023</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -8890,12 +8842,12 @@
       <c r="D498" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E498" s="2" t="n">
+      <c r="E498" s="2">
         <v>48661.38</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
         <v>2024</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -8907,12 +8859,12 @@
       <c r="D499" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E499" s="2" t="n">
+      <c r="E499" s="2">
         <v>25483.37</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="2" t="n">
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
         <v>2023</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -8924,12 +8876,12 @@
       <c r="D500" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E500" s="2" t="n">
+      <c r="E500" s="2">
         <v>30552.27</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="2" t="n">
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
         <v>2023</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -8941,40 +8893,32 @@
       <c r="D501" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E501" s="2" t="n">
+      <c r="E501" s="2">
         <v>48583.64</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.42"/>
+    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -8985,79 +8929,74 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>253276.24</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>23.7598221559166</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2">
+        <v>23.759822155916599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>143135.21</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>13.4275016632029</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>184719.68</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>17.3285371951898</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2">
+        <v>17.328537195189799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>233672.18</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>21.9207669838486</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2">
+        <v>21.920766983848601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>52746.32</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>4.94812771454229</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2">
+        <v>4.9481277145422897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>198435.79</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>18.6152442872999</v>
+      <c r="C7" s="2">
+        <v>18.615244287299902</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>